--- a/biology/Botanique/Ceroxylon/Ceroxylon.xlsx
+++ b/biology/Botanique/Ceroxylon/Ceroxylon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Céroxyle, Ceroxylon, est un genre de plantes de la famille des palmiers ou arécacées. Il comprend des espèces dioïques, de taille moyenne à grande.
 </t>
@@ -511,11 +523,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sous-famille des Ceroxyloideae
 Tribu des Ceroxyleae
-Ce genre partage sa tribu avec les genres suivant : Juania, Oraniopsis et Ravenea [1] .
+Ce genre partage sa tribu avec les genres suivant : Juania, Oraniopsis et Ravenea  .
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les stipes sont solitaires, lisses et atteignent des tailles variables. Certains peuvent atteindre jusqu'à 60 mètres. Ils sont souvent blancs et encerclés d'anneaux noirs, formés par la cicatrice des feuilles. Ils sont souvent plus épais au niveau du milieu du tronc.
 Les feuilles sont pennées et divisées en segments réguliers. Les segments sont insérés régulièrement dans un plan, avant de devenir pendants aux extrémités, ou, parfois, insérées dans des plans différents.
@@ -577,7 +593,9 @@
           <t>Habitat et milieu</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Leur habitat naturel se trouve en Amérique du Sud. Les espèces se rencontrent exclusivement dans les zones montagneuses et tropicales. 15 espèces poussent dans les Andes, du Venezuela à la Bolivie, et en Équateur, dans une zone allant de 900 à 3500 mètres.
 Leur rusticité est relativement bonne. Certaines espèces pouvant supporter des températures très légèrement négatives.
@@ -609,9 +627,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Le genre comprend actuellement 13 espèces selon Plants of the World online (POWO)                (10 sept 2023)[2]:
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le genre comprend actuellement 13 espèces selon Plants of the World online (POWO)                (10 sept 2023):
 Ceroxylon alpinum     Bonpl. ex DC., Bull. Sci. Soc. Philom. Paris 3: 239 (1804).
 Ceroxylon amazonicum  Galeano, Caldasia 17: 398 (1995).
 Ceroxylon ceriferum   (H.Karst.) Pittier, Bol. Ci. Technol. 1: 10 (1926).
